--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.50384966666667</v>
+        <v>19.571477</v>
       </c>
       <c r="H2">
-        <v>97.511549</v>
+        <v>58.714431</v>
       </c>
       <c r="I2">
-        <v>0.1162664629566559</v>
+        <v>0.07340284417718584</v>
       </c>
       <c r="J2">
-        <v>0.116266462956656</v>
+        <v>0.07340284417718584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3006476666666667</v>
+        <v>0.7941993333333333</v>
       </c>
       <c r="N2">
-        <v>0.9019430000000001</v>
+        <v>2.382598</v>
       </c>
       <c r="O2">
-        <v>0.2555551336960822</v>
+        <v>0.475568178302488</v>
       </c>
       <c r="P2">
-        <v>0.2555551336960821</v>
+        <v>0.475568178302488</v>
       </c>
       <c r="Q2">
-        <v>9.772206559967445</v>
+        <v>15.54365398574866</v>
       </c>
       <c r="R2">
-        <v>87.94985903970701</v>
+        <v>139.892885871738</v>
       </c>
       <c r="S2">
-        <v>0.0297124914852588</v>
+        <v>0.03490805688756567</v>
       </c>
       <c r="T2">
-        <v>0.0297124914852588</v>
+        <v>0.03490805688756566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.50384966666667</v>
+        <v>19.571477</v>
       </c>
       <c r="H3">
-        <v>97.511549</v>
+        <v>58.714431</v>
       </c>
       <c r="I3">
-        <v>0.1162664629566559</v>
+        <v>0.07340284417718584</v>
       </c>
       <c r="J3">
-        <v>0.116266462956656</v>
+        <v>0.07340284417718584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.400166</v>
       </c>
       <c r="O3">
-        <v>0.6800593197383766</v>
+        <v>0.4790747630290841</v>
       </c>
       <c r="P3">
-        <v>0.6800593197383766</v>
+        <v>0.479074763029084</v>
       </c>
       <c r="Q3">
-        <v>26.00487827968156</v>
+        <v>15.65826455506066</v>
       </c>
       <c r="R3">
-        <v>234.043904517134</v>
+        <v>140.924380995546</v>
       </c>
       <c r="S3">
-        <v>0.07906809170669062</v>
+        <v>0.03516545017984609</v>
       </c>
       <c r="T3">
-        <v>0.07906809170669062</v>
+        <v>0.03516545017984608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.50384966666667</v>
+        <v>19.571477</v>
       </c>
       <c r="H4">
-        <v>97.511549</v>
+        <v>58.714431</v>
       </c>
       <c r="I4">
-        <v>0.1162664629566559</v>
+        <v>0.07340284417718584</v>
       </c>
       <c r="J4">
-        <v>0.116266462956656</v>
+        <v>0.07340284417718584</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.227239</v>
       </c>
       <c r="O4">
-        <v>0.06438554656554128</v>
+        <v>0.04535705866842794</v>
       </c>
       <c r="P4">
-        <v>0.06438554656554128</v>
+        <v>0.04535705866842794</v>
       </c>
       <c r="Q4">
-        <v>2.462047431467889</v>
+        <v>1.482467620667667</v>
       </c>
       <c r="R4">
-        <v>22.158426883211</v>
+        <v>13.342208586009</v>
       </c>
       <c r="S4">
-        <v>0.007485879764706552</v>
+        <v>0.003329337109774093</v>
       </c>
       <c r="T4">
-        <v>0.007485879764706553</v>
+        <v>0.003329337109774093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>737.6432500000001</v>
       </c>
       <c r="I5">
-        <v>0.8795180927887045</v>
+        <v>0.9221772503952724</v>
       </c>
       <c r="J5">
-        <v>0.8795180927887046</v>
+        <v>0.9221772503952725</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3006476666666667</v>
+        <v>0.7941993333333333</v>
       </c>
       <c r="N5">
-        <v>0.9019430000000001</v>
+        <v>2.382598</v>
       </c>
       <c r="O5">
-        <v>0.2555551336960822</v>
+        <v>0.475568178302488</v>
       </c>
       <c r="P5">
-        <v>0.2555551336960821</v>
+        <v>0.475568178302488</v>
       </c>
       <c r="Q5">
-        <v>73.9235739816389</v>
+        <v>195.2785924626111</v>
       </c>
       <c r="R5">
-        <v>665.3121658347501</v>
+        <v>1757.5073321635</v>
       </c>
       <c r="S5">
-        <v>0.2247653637907406</v>
+        <v>0.4385581550424771</v>
       </c>
       <c r="T5">
-        <v>0.2247653637907406</v>
+        <v>0.4385581550424771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>737.6432500000001</v>
       </c>
       <c r="I6">
-        <v>0.8795180927887045</v>
+        <v>0.9221772503952724</v>
       </c>
       <c r="J6">
-        <v>0.8795180927887046</v>
+        <v>0.9221772503952725</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.400166</v>
       </c>
       <c r="O6">
-        <v>0.6800593197383766</v>
+        <v>0.4790747630290841</v>
       </c>
       <c r="P6">
-        <v>0.6800593197383766</v>
+        <v>0.479074763029084</v>
       </c>
       <c r="Q6">
         <v>196.7184720866111</v>
@@ -818,10 +818,10 @@
         <v>1770.4662487795</v>
       </c>
       <c r="S6">
-        <v>0.5981244758794808</v>
+        <v>0.4417918477039275</v>
       </c>
       <c r="T6">
-        <v>0.5981244758794809</v>
+        <v>0.4417918477039274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>737.6432500000001</v>
       </c>
       <c r="I7">
-        <v>0.8795180927887045</v>
+        <v>0.9221772503952724</v>
       </c>
       <c r="J7">
-        <v>0.8795180927887046</v>
+        <v>0.9221772503952725</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.227239</v>
       </c>
       <c r="O7">
-        <v>0.06438554656554128</v>
+        <v>0.04535705866842794</v>
       </c>
       <c r="P7">
-        <v>0.06438554656554128</v>
+        <v>0.04535705866842794</v>
       </c>
       <c r="Q7">
         <v>18.62459049852778</v>
@@ -880,10 +880,10 @@
         <v>167.62131448675</v>
       </c>
       <c r="S7">
-        <v>0.05662825311848319</v>
+        <v>0.04182724764886794</v>
       </c>
       <c r="T7">
-        <v>0.0566282531184832</v>
+        <v>0.04182724764886794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>3.535452</v>
       </c>
       <c r="I8">
-        <v>0.004215444254639368</v>
+        <v>0.004419905427541656</v>
       </c>
       <c r="J8">
-        <v>0.004215444254639368</v>
+        <v>0.004419905427541656</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3006476666666667</v>
+        <v>0.7941993333333333</v>
       </c>
       <c r="N8">
-        <v>0.9019430000000001</v>
+        <v>2.382598</v>
       </c>
       <c r="O8">
-        <v>0.2555551336960822</v>
+        <v>0.475568178302488</v>
       </c>
       <c r="P8">
-        <v>0.2555551336960821</v>
+        <v>0.475568178302488</v>
       </c>
       <c r="Q8">
-        <v>0.3543084648040001</v>
+        <v>0.9359512071439998</v>
       </c>
       <c r="R8">
-        <v>3.188776183236</v>
+        <v>8.423560864295998</v>
       </c>
       <c r="S8">
-        <v>0.001077278420082745</v>
+        <v>0.002101966372445265</v>
       </c>
       <c r="T8">
-        <v>0.001077278420082745</v>
+        <v>0.002101966372445265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.535452</v>
       </c>
       <c r="I9">
-        <v>0.004215444254639368</v>
+        <v>0.004419905427541656</v>
       </c>
       <c r="J9">
-        <v>0.004215444254639368</v>
+        <v>0.004419905427541656</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.400166</v>
       </c>
       <c r="O9">
-        <v>0.6800593197383766</v>
+        <v>0.4790747630290841</v>
       </c>
       <c r="P9">
-        <v>0.6800593197383766</v>
+        <v>0.479074763029084</v>
       </c>
       <c r="Q9">
-        <v>0.9428524094480001</v>
+        <v>0.9428524094479999</v>
       </c>
       <c r="R9">
-        <v>8.485671685032001</v>
+        <v>8.485671685031999</v>
       </c>
       <c r="S9">
-        <v>0.002866752152205097</v>
+        <v>0.002117465145310481</v>
       </c>
       <c r="T9">
-        <v>0.002866752152205097</v>
+        <v>0.002117465145310481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.535452</v>
       </c>
       <c r="I10">
-        <v>0.004215444254639368</v>
+        <v>0.004419905427541656</v>
       </c>
       <c r="J10">
-        <v>0.004215444254639368</v>
+        <v>0.004419905427541656</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,22 +1054,22 @@
         <v>0.227239</v>
       </c>
       <c r="O10">
-        <v>0.06438554656554128</v>
+        <v>0.04535705866842794</v>
       </c>
       <c r="P10">
-        <v>0.06438554656554128</v>
+        <v>0.04535705866842794</v>
       </c>
       <c r="Q10">
-        <v>0.089265841892</v>
+        <v>0.08926584189199999</v>
       </c>
       <c r="R10">
-        <v>0.803392577028</v>
+        <v>0.8033925770279999</v>
       </c>
       <c r="S10">
-        <v>0.0002714136823515265</v>
+        <v>0.00020047390978591</v>
       </c>
       <c r="T10">
-        <v>0.0002714136823515265</v>
+        <v>0.00020047390978591</v>
       </c>
     </row>
   </sheetData>
